--- a/medicine/Enfance/Ismaël_Khelifa/Ismaël_Khelifa.xlsx
+++ b/medicine/Enfance/Ismaël_Khelifa/Ismaël_Khelifa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isma%C3%ABl_Khelifa</t>
+          <t>Ismaël_Khelifa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ismaël Khelifa, né en 1979 à Annecy, est un journaliste et animateur de télévision français.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isma%C3%ABl_Khelifa</t>
+          <t>Ismaël_Khelifa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ismaël Khelifa est le fils de Mohamed Khelifa et Bernadette Sublet[1]. Il étudie le journalisme à l’IUT de Tours puis travaille à Radio France et à France Inter dans les domaines de la politique et de l’économie[2],[3].
-En 2003 il découvre l'Islande, se passionne pour les régions polaires et devient guide naturaliste[4],[5]. Il co-écrit notamment des récits avec l'aventurier Nicolas Dubreuil.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ismaël Khelifa est le fils de Mohamed Khelifa et Bernadette Sublet. Il étudie le journalisme à l’IUT de Tours puis travaille à Radio France et à France Inter dans les domaines de la politique et de l’économie,.
+En 2003 il découvre l'Islande, se passionne pour les régions polaires et devient guide naturaliste,. Il co-écrit notamment des récits avec l'aventurier Nicolas Dubreuil.
 En 2012, Ismaël Khelifa se tourne vers la télévision et rejoint l'équipe de l'émission Rendez-vous en terre inconnue
-sur France 2 puis Nos terres inconnues pour lesquelles il effectue des repérages[2].
-De 2017 à 2018, il tient la rubrique tourisme dans l'émission La Quotidienne sur France 5[2].
-Depuis 2019, à la suite du départ de Raphaël de Casabianca, il présente Échappées belles sur France 5 en alternance avec Sophie Jovillard, Jérôme Pitorin et Tiga[6].
-Avec son épouse Alice Khelifa-Gastine (Ushuaïa TV), il a créé l'association For my Planet[7]. Il est l'un des ambassadeurs de l'association Un enfant par la main et auteur de livres pour la jeunesse[3].
+sur France 2 puis Nos terres inconnues pour lesquelles il effectue des repérages.
+De 2017 à 2018, il tient la rubrique tourisme dans l'émission La Quotidienne sur France 5.
+Depuis 2019, à la suite du départ de Raphaël de Casabianca, il présente Échappées belles sur France 5 en alternance avec Sophie Jovillard, Jérôme Pitorin et Tiga.
+Avec son épouse Alice Khelifa-Gastine (Ushuaïa TV), il a créé l'association For my Planet. Il est l'un des ambassadeurs de l'association Un enfant par la main et auteur de livres pour la jeunesse.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isma%C3%ABl_Khelifa</t>
+          <t>Ismaël_Khelifa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,12 @@
           <t>Emissions de télévision</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2012-2013 : Rendez-vous en terre inconnue (France 2)
-2015 : Les Enfants de l'Anthropocène, documentaire de Dimitri Grimblat, scénario Julien Goet, Ismaël Khelifa[8]
+2015 : Les Enfants de l'Anthropocène, documentaire de Dimitri Grimblat, scénario Julien Goet, Ismaël Khelifa
 Depuis 2017 : Nos terres inconnues (France 2)
 2017-2018 : La Quotidienne (France 5)
 Depuis 2019 : Échappées belles (France 5)</t>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isma%C3%ABl_Khelifa</t>
+          <t>Ismaël_Khelifa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,12 +599,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nicolas Dubreuil et Ismaël Khelifa, Mystères polaires, Éditions Points, 1er octobre 2015, 240 p. (ISBN 978-2757855775)
 Nicolas Dubreuil et Ismaël Khelifa, Akago : Ma vie au Groenland, Robert Laffont, 21 avril 2016, 252 p. (ISBN 978-2221159583)
 Opération Groenland  (ill. Joëlle Passeron), Poulpe Fictions, 30 mai 2017, 168 p. (ISBN 978-2377420025)
-Mâles d'hier, hommes d'aujourd'hui : Les confidences du pénis, Éditions du Seuil, 5 avril 2018, 144 p. (ISBN 978-2021328318)[9]
+Mâles d'hier, hommes d'aujourd'hui : Les confidences du pénis, Éditions du Seuil, 5 avril 2018, 144 p. (ISBN 978-2021328318)
 Opération Manchots  (ill. Joëlle Passeron), Poulpe Fictions, 15 mars 2018, 168 p. (ISBN 978-2377420308)
 La Vie simple : Renouer avec la nature et l'authenticité, First édition, 5 septembre 2019, 288 p. (ISBN 978-2412045046)
 Sophie Jovillard, Ismaël Khelifa et Jérôme Pitorin, Invitations au voyage : Echappées belles - comment partir à la découverte des autres et du monde a changé notre vie, First édition, 26 novembre 2020, 232 p. (ISBN 978-2412061954)
